--- a/SEVA_Plasmids/V1/Corrupted_SEVA_Plasmid_Dataset_V1/JX560373/JX560373_mutations.xlsx
+++ b/SEVA_Plasmids/V1/Corrupted_SEVA_Plasmid_Dataset_V1/JX560373/JX560373_mutations.xlsx
@@ -534,7 +534,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>45438.89335467915</v>
+        <v>45441.83360545647</v>
       </c>
     </row>
     <row r="3">
@@ -545,7 +545,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['1675_1678del']</t>
+          <t>['1656_1695del', '1757_1810insaacgtgtttactgcgaatcttgcgaggtaccccgctaaggaactttcgtaacg', '1561_1669instgcattcccgcatggatgattacccgatgtatggaggactgattgttgatactcaaaaggtacctgccagtcacgactgattttcgtgagaaggcgtgttggaatcga', '1722_1849insgacataagcgtccgggtcactatcgacaggtttggcagtgcagttaggtagtaatatccttgccgacaggctgagataggtatggagcggaggaatgccccccgacagcggatcttgaaatctgtat', '1586_1707insaaactgtccatagctgtgtgggtagaatgctcaaattgctcctaactgcatttcgtgtgcatgatagataactcggatttttgctacaatgtgagtgacgaccacagataaggtttcagga']</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -568,16 +568,16 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>45438.89335469653</v>
+        <v>45441.83360549038</v>
       </c>
     </row>
     <row r="4">
@@ -593,7 +593,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['612_617insaacct']</t>
+          <t>['646_659del', '604_635del', '676_755insgacacaggcctctggcattcaccatgccgcgtatcggtatcatgtataccgcgcgacggagccacttctcttactcatg', '657_784del', '658_737del']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -611,16 +611,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J4" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>45438.89335472552</v>
+        <v>45441.833605511</v>
       </c>
     </row>
     <row r="5">
@@ -641,7 +641,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['3894_3894del']</t>
+          <t>['3814_3874del', '3897_3983del', '3811_3922del', '3828_3924insgcaccggcagttgttttggatatgagcacctgtcttataggaattattctcataagcttcgcgtccgcgactcgcgcccgttatgcttggccgcct', '3892_3991inscatttggacctcctaccccacgttctatgtctggtaagagttccagtcaccaccggaatctcatgtcgactcagaagccagctcattcgagctttgtac']</t>
         </is>
       </c>
       <c r="E5" t="b">
@@ -654,16 +654,16 @@
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J5" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>45438.89335475447</v>
+        <v>45441.8336056414</v>
       </c>
     </row>
     <row r="6">
@@ -674,12 +674,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['1740_1742insag']</t>
+          <t>['1649_1705inscaggttcatagaacgtgacgcacaggcctagatttaggacggtaaacttaatatag', '1587_1719insacagaggccggttcgaaaaggaggtgtatcctcgaacagtagcgagctgttacagcttagcaaggatatgcatcctcatcactcgcgctatgccgggtacatgatggggtgcccactggaaataagcggtgc', '1769_1851del', '1701_1783inscgcaggccatcccactgtctacacggttctatccgaatcagataccccatagcaactagacggtttcagcggtactactaat', '1738_1832del']</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['660_664insctgt']</t>
+          <t>['700_761del', '606_717del', '683_784del', '700_764del', '698_835instcgagagtggaggcagcttgcccctatatagaagcaacttcactgcagccaatcatgaccgtaatgggcacaaaactgttattaccctaccgggagtcagacttaccattctcctcaagtaattgtcagcggaagct']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -697,16 +697,16 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>45438.89335477183</v>
+        <v>45441.83360566455</v>
       </c>
     </row>
     <row r="7">
@@ -717,7 +717,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['1705_1706del']</t>
+          <t>['1569_1717insagacggaaagtaccgtggatcggaattgaccgcggattgggctacgaacgtgggaaaacttccggacgtggtccgctggtgaatctcctgaacgtagaagtcaatgtgggcacatcgttaacgcagagccacctaatggcagatccga', '1638_1677del', '1721_1855del', '1749_1855del', '1627_1644del']</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -727,7 +727,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>['3812a&gt;c']</t>
+          <t>['3815_3903del', '3836_3922del', '3895_3909del', '3805_3818inscactccaagtaga', '3811_3956instgccttgatctggggtcgatcgacagcaacactctcctcaacgtatctatcacgaacattggatcttagatcataagttaagtatctgcgacgccgacatttgagattaccacccgaagacgcaagaactgtgcgatattagaac']</t>
         </is>
       </c>
       <c r="E7" t="b">
@@ -740,16 +740,16 @@
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J7" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>45438.89335479501</v>
+        <v>45441.83360569338</v>
       </c>
     </row>
     <row r="8">
@@ -765,12 +765,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>['695_699insactc']</t>
+          <t>['677_727del', '686_769del', '669_773insagtaaaacctggggccatgagatttgcgcgctcacgagaaaaccagtagatattttagttgcgatacaagctgaggtacctcggttcatcgcaaacctatctcg', '689_828inscagtgccactcttgtacgtgtggagaatgtttcaattcggctcatagataactctcggtcgttgcaccgtgtaatttctcgaattccgtaaggttccgcaacgagcccgtcacaccaacttccttgcggccttctacgc', '602_699del']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>['3888_3892instggc']</t>
+          <t>['3850_3931del', '3872_3889del', '3823_3927insataaccgattctcgtcatgttttatcgaggtcctacaaacatgagataatagagtcccccgttgttccctaccaacctgccgagactattgcctagtaaaagag', '3832_3899del', '3837_3862del']</t>
         </is>
       </c>
       <c r="E8" t="b">
@@ -783,16 +783,16 @@
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J8" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>45438.89335481234</v>
+        <v>45441.8336057242</v>
       </c>
     </row>
     <row r="9">
@@ -803,17 +803,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['1681_1685insaagg']</t>
+          <t>['1729_1757del', '1617_1742del', '1684_1706insaacaccgcagtcatcgcctgtg', '1578_1726insgtagaggacagctcccgaacacatacccagggtcgactaagttagggtcgccaaggtaacaagttgagtcgtcgagggtgttaccagcttactttatttctataaacttgataattctcggacggtgcaattttgccagagtgttgat', '1686_1817insttcactggacgccatccgatgtctcgagaagcccgtgtcgcgttcgcacaataccttacgagaaactggccgccgacgtgagagagggggcagtcgagcactctccaagtcgacctagggcttcccctttt']</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['674_679insaaatt']</t>
+          <t>['662_736insgctagatgcagcgccgtctccgttcgactccgtttggtgggattatagtctgtctgtacgctgcgcgagatgtt', '606_753del', '691_798del', '610_620insttgctgtttc', '656_727insttccgaaaacgtccatcaactggacgtcgtcccaatcgctcaatacggattcccagccggaataggccgga']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>['3824_3826insca']</t>
+          <t>['3888_3922insggtatccccgctagagagaatacgcatacattgt', '3891_3942del', '3829_3943insacagtgaccgacgatgtgtaataatagatgtgagcacactccgcgatgaccacagccgggtgagtccaagtttgccggacagtcaatagctcaacctgttgagcatgaagatgg', '3820_3951del', '3798_3832insactcatgtcgcgctagaaacatctggtaggcctg']</t>
         </is>
       </c>
       <c r="E9" t="b">
@@ -826,16 +826,16 @@
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>45438.89335483548</v>
+        <v>45441.83360575911</v>
       </c>
     </row>
   </sheetData>
